--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2077079.687629105</v>
+        <v>2174791.489438677</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577126</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6132245.001538716</v>
+        <v>6479841.729366818</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>190.9585293537053</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>144.1091668697364</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>193.8105769805165</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.9190842242656</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +901,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>397.2230513325169</v>
+        <v>68.55481538240105</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>110.4849443880404</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>209.6603985885648</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>49.79079256199712</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.183036280549</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>8.926321356745341</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>127.177571204272</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>207.0971796396626</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.0898487279628</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>176.8938954543258</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>210.1677610580243</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>173.5839690829284</v>
       </c>
       <c r="U16" t="n">
-        <v>125.6180939531684</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2005,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>161.8970328977319</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2144,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439308</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.209635605837869</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>166.7193926923576</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>146.7373013332753</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>108.5937695101885</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>32.04392548113017</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>88.0013102522784</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.441938898131897</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>173.9462411923802</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3427,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>101.8436776486291</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.9291457253091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868334</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>396.5745675093918</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864469</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686383</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536222</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396265</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
-        <v>84.90747931370008</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>40.79871210679603</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>203.7681306070763</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>650.0121903824011</v>
+        <v>1910.322343568192</v>
       </c>
       <c r="C2" t="n">
-        <v>223.1114603957012</v>
+        <v>1717.434940180611</v>
       </c>
       <c r="D2" t="n">
-        <v>203.8592436211055</v>
+        <v>1294.142319365611</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>868.1653795134687</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>517.6410595347458</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>521.1434366268325</v>
       </c>
       <c r="M2" t="n">
-        <v>950.4838058662885</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="N2" t="n">
-        <v>950.4838058662885</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="O2" t="n">
-        <v>950.4838058662885</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1479.021285111689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="V2" t="n">
-        <v>1482.877419510889</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="W2" t="n">
-        <v>1482.877419510889</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="X2" t="n">
-        <v>1071.157420678637</v>
+        <v>1927.427169824023</v>
       </c>
       <c r="Y2" t="n">
-        <v>665.8201506335271</v>
+        <v>1926.130303819318</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>807.4926073032673</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>807.4926073032673</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>807.4926073032673</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.5700351781119</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>352.5700351781119</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>352.5700351781119</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>352.5700351781119</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>180.7082609526723</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>165.7127968735008</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>520.4021181679216</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>911.5879131381723</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="W4" t="n">
-        <v>548.3382947543912</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="X4" t="n">
-        <v>352.5700351781119</v>
+        <v>1474.59375604808</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.5700351781119</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>908.3670997859888</v>
+        <v>1796.086427374292</v>
       </c>
       <c r="C5" t="n">
-        <v>481.4663697992889</v>
+        <v>1369.185697387593</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>475.942330131692</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>932.7282368344229</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.552734122628</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1328.215464077519</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>950.4838058662885</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>1407.269712569019</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>724.5429586926243</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="C7" t="n">
-        <v>724.5429586926243</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D7" t="n">
-        <v>724.5429586926243</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>558.3347528454779</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1742.234349487134</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1742.234349487134</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1432.125227786372</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1432.125227786372</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.272823958885</v>
+        <v>1207.89780840412</v>
       </c>
       <c r="X7" t="n">
-        <v>914.7089274046899</v>
+        <v>965.333911849925</v>
       </c>
       <c r="Y7" t="n">
-        <v>914.7089274046899</v>
+        <v>738.9911435396671</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>965.3211864711366</v>
+        <v>1796.086427374292</v>
       </c>
       <c r="C8" t="n">
-        <v>538.4204564844367</v>
+        <v>1369.185697387593</v>
       </c>
       <c r="D8" t="n">
-        <v>519.168239709841</v>
+        <v>945.8930765725929</v>
       </c>
       <c r="E8" t="n">
-        <v>497.2317038981026</v>
+        <v>519.9161367204505</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>94.79195490985069</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1512.627163167262</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.169550762667</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>36.9119924608267</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.338603437836</v>
+        <v>382.678994017478</v>
       </c>
       <c r="C10" t="n">
-        <v>452.338603437836</v>
+        <v>210.706430896394</v>
       </c>
       <c r="D10" t="n">
-        <v>452.338603437836</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E10" t="n">
-        <v>452.338603437836</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1386.263640841841</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1111.411237014354</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>868.8473404601596</v>
+        <v>799.1877310398015</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.5045721499016</v>
+        <v>572.8449627295436</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2178.117784637993</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1751.217054651293</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1327.924433836293</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>476.823312173551</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>72.48424976299958</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299958</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>787.9925577384986</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
-        <v>1684.985148555618</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>2581.977739372738</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3427.12238952355</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3427.12238952355</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149979</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149979</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3624.212488149979</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3415.023417806885</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3003.303418974633</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2597.966148929523</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491142</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>79.93089272491142</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>79.93089272491142</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>916.7297008078176</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>916.7297008078176</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>991.6906023320378</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>569.9446969357482</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C13" t="n">
-        <v>397.9721338146642</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D13" t="n">
-        <v>397.9721338146642</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E13" t="n">
-        <v>397.9721338146642</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F13" t="n">
-        <v>226.1103595892246</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299958</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299958</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>742.8905159778193</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.1106656478138</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2475.986163163958</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362259</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995162</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299958</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299958</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299958</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801194</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.469431397239</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2763.462022214359</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3608.606672365171</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023119</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023119</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3519.845194023119</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3519.845194023119</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3519.845194023119</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3108.125195190867</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2895.834527455489</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>147.3804814434835</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>984.1792895263897</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1881.171880343509</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1881.171880343509</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>740.2387613102272</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="C16" t="n">
-        <v>568.2661981891432</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D16" t="n">
-        <v>404.9494253159139</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E16" t="n">
-        <v>238.7412194687674</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299958</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299958</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2082.762229695263</v>
+        <v>1937.243350830083</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.875266106204</v>
+        <v>1657.058902330388</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.163798714233</v>
+        <v>1375.347434938416</v>
       </c>
       <c r="W16" t="n">
-        <v>1399.311394886746</v>
+        <v>1100.495031110929</v>
       </c>
       <c r="X16" t="n">
-        <v>1156.747498332551</v>
+        <v>1100.495031110929</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.4047300222928</v>
+        <v>874.1522628006715</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5531,34 +5533,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5595,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4478291472353</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4478291472353</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>201.4478291472353</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="20">
@@ -5753,19 +5755,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.825557038856</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>786.8947875232845</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C22" t="n">
-        <v>614.9222244022005</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D22" t="n">
-        <v>614.9222244022005</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E22" t="n">
-        <v>448.7140185550541</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F22" t="n">
-        <v>276.8522443296145</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G22" t="n">
-        <v>110.5952746238466</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.81982492729</v>
+        <v>1420.653470102319</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.967421099803</v>
+        <v>1145.801066274832</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.403524545608</v>
+        <v>1145.801066274832</v>
       </c>
       <c r="Y22" t="n">
-        <v>977.0607562353503</v>
+        <v>919.4582979645735</v>
       </c>
     </row>
     <row r="23">
@@ -5993,16 +5995,16 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
         <v>1021.509065974867</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2173.025064546039</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1929.685716771939</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1649.501268272243</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1649.501268272243</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1374.648864444756</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.084967890562</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>888.2776948471594</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C28" t="n">
-        <v>716.3051317260754</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9375302299843</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>517.7293243828378</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V28" t="n">
-        <v>1822.202732251165</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.350328423678</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X28" t="n">
-        <v>1304.786431869483</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y28" t="n">
-        <v>1078.443663559225</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,10 +6548,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
         <v>1021.509065974867</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>896.5642001559722</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>896.5642001559722</v>
       </c>
     </row>
     <row r="32">
@@ -6783,19 +6785,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.6022263052665</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>606.6296631841825</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2275.198630820844</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2031.859283046744</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.674834547048</v>
+        <v>1693.538071632295</v>
       </c>
       <c r="V34" t="n">
-        <v>1469.963367155077</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="W34" t="n">
-        <v>1195.11096332759</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X34" t="n">
-        <v>1195.11096332759</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y34" t="n">
-        <v>968.7681950173321</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,58 +6925,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.3940204581199</v>
+        <v>881.4746279705485</v>
       </c>
       <c r="C37" t="n">
-        <v>440.4214573370359</v>
+        <v>709.5020648494644</v>
       </c>
       <c r="D37" t="n">
-        <v>440.4214573370359</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
         <v>268.5596831115964</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.5599891701856</v>
+        <v>1071.640596682614</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623564</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1040.608704104279</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1970.233751723555</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2974.519853142614</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629314</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629314</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2449.665804398866</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988751</v>
       </c>
       <c r="G41" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299957</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>72.48424976299957</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>969.4768405801192</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>1866.469431397239</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605965</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763893</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149979</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149979</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149979</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276228</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3266.723073276228</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2855.003074443975</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2449.665804398866</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>72.48424976299957</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>969.4768405801192</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N42" t="n">
-        <v>969.4768405801192</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.3185871095232</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>244.3460239884391</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>244.3460239884391</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>244.3460239884391</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2155.478888179296</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1912.139540405195</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1631.9550919055</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1350.243624513529</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.391220686042</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>832.8273241318468</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>606.4845558215889</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988731</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883217</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623565</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>2047.588607372513</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2944.581198189632</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3050.570673763891</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3050.570673763891</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763891</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3624.212488149977</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3365.857578746389</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3008.368163872638</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2922.603033252739</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2510.883034420487</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491137</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>942.113308572842</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>942.113308572842</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>942.113308572842</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>942.113308572842</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>623.7863771251859</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="C46" t="n">
-        <v>451.8138140041019</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D46" t="n">
-        <v>451.8138140041019</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E46" t="n">
-        <v>410.6029936942069</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F46" t="n">
-        <v>238.7412194687674</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299954</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.422881921163</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>1557.711414529191</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="W46" t="n">
-        <v>1282.859010701704</v>
+        <v>1506.326936679732</v>
       </c>
       <c r="X46" t="n">
-        <v>1040.29511414751</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="Y46" t="n">
-        <v>813.9523458372516</v>
+        <v>1037.420271815279</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>41.84979707109434</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533998</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7994,7 +7996,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>481.0403493565598</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398027</v>
+        <v>33.33065795364229</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761902</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587967</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094629</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5718579722078</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.7446103807745</v>
+        <v>452.2898123070841</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>372.0892523034619</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,16 +8309,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>464.5283265304016</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>129.0289299912522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P8" t="n">
-        <v>361.589074527822</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>381.2527255747682</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8693,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369265</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719408</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>235.2055823080614</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>97.06111056123879</v>
+        <v>185.1977413813447</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701176</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369265</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719408</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>53.33881209791602</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>98.05199310654943</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498227</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>22.16299716586774</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8329647736514</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>354.7888827341285</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335774</v>
       </c>
       <c r="N21" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N24" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>921.6378271075471</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>921.6378271075471</v>
@@ -10431,22 +10433,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286654</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>475.2939470053066</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>617.2823097660768</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M39" t="n">
-        <v>510.3288389666712</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,19 +11062,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369264</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>518.0192050214039</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11142,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498226</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>475.2421552783948</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701171</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>144.3396991720808</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11391,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171366</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>185.3302565629939</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>12.50455128074742</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>47.18544517282953</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396353</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>191.1161362866343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>67.32198521343057</v>
       </c>
       <c r="U16" t="n">
-        <v>151.7645100615304</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23938,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>116.9973198203195</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>134.1486702010893</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>112.1749600256938</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>41.52700769166967</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>59.83992749586798</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>129.6396796633668</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>44.5250625300167</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>152.1369473363745</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>160.9917581079246</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>103.4363628223186</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>59.8399274958679</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.15019490184631</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>26.05715517744102</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.98949189919266</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>307.5199568889565</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.7474116818789</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>68.33574918213583</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>547888.1821186442</v>
+        <v>549035.5913446264</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>547888.1821186442</v>
+        <v>552750.6506933739</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>547888.1821186442</v>
+        <v>552750.6506933739</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447924.0451756053</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447924.0451756053</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563357.1697351866</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563357.1697351866</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563357.1697351866</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447924.0451756053</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447924.0451756051</v>
+        <v>563357.1697351867</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509637.3345097678</v>
+      </c>
+      <c r="C2" t="n">
         <v>509637.3345097677</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>509637.3345097678</v>
       </c>
-      <c r="D2" t="n">
-        <v>509637.3345097677</v>
-      </c>
       <c r="E2" t="n">
-        <v>391028.3185382719</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="I2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="J2" t="n">
         <v>491776.6027452663</v>
@@ -26341,19 +26343,19 @@
         <v>491776.6027452665</v>
       </c>
       <c r="L2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="M2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="N2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="O2" t="n">
-        <v>391028.3185382719</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="P2" t="n">
-        <v>391028.3185382717</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096021</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943096</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204222</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.56881304554</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.56881304552</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986368</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986365</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.6272498637</v>
       </c>
       <c r="O4" t="n">
-        <v>57519.56881304554</v>
+        <v>72380.62724986365</v>
       </c>
       <c r="P4" t="n">
-        <v>57519.56881304551</v>
+        <v>72380.62724986365</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987968</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987968</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93869.79020099671</v>
+        <v>88984.09470543361</v>
       </c>
       <c r="C6" t="n">
-        <v>248495.5108191173</v>
+        <v>236163.1842828284</v>
       </c>
       <c r="D6" t="n">
-        <v>248495.5108191173</v>
+        <v>259570.0179564406</v>
       </c>
       <c r="E6" t="n">
-        <v>145657.0518957447</v>
+        <v>125906.5567503324</v>
       </c>
       <c r="F6" t="n">
-        <v>278420.7199053466</v>
+        <v>341645.9133069729</v>
       </c>
       <c r="G6" t="n">
-        <v>239485.9932126634</v>
+        <v>341645.9133069729</v>
       </c>
       <c r="H6" t="n">
+        <v>341645.913306973</v>
+      </c>
+      <c r="I6" t="n">
+        <v>341645.9133069731</v>
+      </c>
+      <c r="J6" t="n">
+        <v>215068.6447266841</v>
+      </c>
+      <c r="K6" t="n">
+        <v>322999.3129499534</v>
+      </c>
+      <c r="L6" t="n">
+        <v>341645.913306973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>161582.0418518052</v>
+      </c>
+      <c r="N6" t="n">
         <v>341645.9133069729</v>
       </c>
-      <c r="I6" t="n">
-        <v>341645.913306973</v>
-      </c>
-      <c r="J6" t="n">
-        <v>220923.3963642159</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>341645.9133069731</v>
       </c>
-      <c r="L6" t="n">
-        <v>341645.9133069731</v>
-      </c>
-      <c r="M6" t="n">
-        <v>230836.5531978395</v>
-      </c>
-      <c r="N6" t="n">
-        <v>341645.9133069731</v>
-      </c>
-      <c r="O6" t="n">
-        <v>278420.7199053467</v>
-      </c>
       <c r="P6" t="n">
-        <v>278420.7199053466</v>
+        <v>341645.9133069729</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374947</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374947</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374946</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771605</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353617</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771605</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353617</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>231.6731933331276</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>277.6080035838846</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>46.3276806081364</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>63.16025640288981</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.83664327433274</v>
+        <v>350.5048792244486</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>59.65821209514473</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>62.44348120064728</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>350.5048792244487</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>275.1008610641095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>269.968031361306</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.960686384381</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.962624854435923e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-2.133027446319478e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29278,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.779126741819878e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>3.537754638471418</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>443.4649875463285</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255732</v>
+        <v>10.81557123941274</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567509</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>277.0726704737833</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>443.4649875463285</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>442.7574853255729</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>104.4093672264672</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9096973612265</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35413,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374947</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.0809077034633</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>75.71808234769713</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374947</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374947</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>15.76345028768472</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.65275927321609</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374947</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.3921559610390808</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.80031487885498</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="N21" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N24" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>898.4659373853249</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>898.4659373853249</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.492718418434</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>581.5177089712674</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M39" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374946</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374946</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>480.6282456653797</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374946</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>452.0702655561726</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374942</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>107.0600763376348</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.862408912308</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174791.489438677</v>
+        <v>2174094.828233586</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>190.9585293537053</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>109.0144937527834</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>128.9342698104366</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.9190842242656</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>68.55481538240105</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,7 +910,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0.8056189209971626</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>209.6603985885648</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>215.44093091962</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>49.79079256199712</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>127.177571204272</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>69.70658994605397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.8938954543258</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>173.5839690829284</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.8970328977319</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2298,13 +2298,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>166.7193926923576</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.7373013332753</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.9086344760398</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>88.0013102522784</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>173.9462411923802</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3328,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8436776486291</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>34.53558964739356</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3483,13 +3483,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886548</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868334</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486161</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864469</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3805,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.24387488545715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536222</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396265</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>146.4147609268111</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>203.7681306070763</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1910.322343568192</v>
+        <v>528.1740540056944</v>
       </c>
       <c r="C2" t="n">
-        <v>1717.434940180611</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>1294.142319365611</v>
+        <v>82.02110724439889</v>
       </c>
       <c r="E2" t="n">
-        <v>868.1653795134687</v>
+        <v>60.0845714326605</v>
       </c>
       <c r="F2" t="n">
-        <v>443.0411977028688</v>
+        <v>39.0007936624648</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347458</v>
+        <v>42.20451238440467</v>
       </c>
       <c r="L2" t="n">
-        <v>521.1434366268325</v>
+        <v>42.20451238440467</v>
       </c>
       <c r="M2" t="n">
-        <v>1000.082360869261</v>
+        <v>42.20451238440467</v>
       </c>
       <c r="N2" t="n">
-        <v>1000.082360869261</v>
+        <v>521.1434366268336</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869261</v>
+        <v>1000.082360869263</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111689</v>
+        <v>1479.021285111691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615872</v>
+        <v>1714.181193660508</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615872</v>
+        <v>1455.82628425692</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615872</v>
+        <v>1455.82628425692</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615872</v>
+        <v>1059.434934557267</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.427169824023</v>
+        <v>949.3192843019301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.130303819318</v>
+        <v>948.0224182972245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000791</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422928</v>
+        <v>46.14877825422933</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>46.14877825422933</v>
       </c>
       <c r="K3" t="n">
-        <v>796.7851917762487</v>
+        <v>410.5729931455405</v>
       </c>
       <c r="L3" t="n">
-        <v>807.4926073032673</v>
+        <v>889.5119173879694</v>
       </c>
       <c r="M3" t="n">
-        <v>807.4926073032673</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="N3" t="n">
-        <v>807.4926073032673</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545696</v>
+        <v>1368.450841630398</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="K4" t="n">
-        <v>165.7127968735008</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679216</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381723</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014208</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693971</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1888.068151303048</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1717.933103822183</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.59375604808</v>
+        <v>1474.593756048082</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.59375604808</v>
+        <v>1194.409307548387</v>
       </c>
       <c r="V4" t="n">
-        <v>1474.59375604808</v>
+        <v>912.6978401564156</v>
       </c>
       <c r="W4" t="n">
-        <v>1474.59375604808</v>
+        <v>637.8454363289286</v>
       </c>
       <c r="X4" t="n">
-        <v>1474.59375604808</v>
+        <v>395.2815397747337</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>168.9387714644757</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.086427374292</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.185697387593</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>1299.938409122541</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924753</v>
@@ -4570,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4612,7 +4612,7 @@
         <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>548.8251748276015</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>548.8251748276015</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.387456188581</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.67598879661</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.89780840412</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X7" t="n">
-        <v>965.333911849925</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.9911435396671</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>1133.6911139303</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.185697387593</v>
+        <v>1110.830787984004</v>
       </c>
       <c r="D8" t="n">
-        <v>945.8930765725929</v>
+        <v>687.5381671690047</v>
       </c>
       <c r="E8" t="n">
-        <v>519.9161367204505</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>94.79195490985069</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,19 +4804,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
         <v>1100.603903091853</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>1553.53947822183</v>
       </c>
     </row>
     <row r="9">
@@ -4895,16 +4895,16 @@
         <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.678994017478</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>210.706430896394</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>210.706430896394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>799.1877310398015</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.8449627295436</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
         <v>839.4070255988738</v>
@@ -5041,52 +5041,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.0438447866366</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>202.0712816655526</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D13" t="n">
-        <v>202.0712816655526</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="E13" t="n">
-        <v>202.0712816655526</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0712816655526</v>
+        <v>172.7134103210346</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>172.7134103210346</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>172.7134103210346</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299896</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358268</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302475</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.677127506133</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025268</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251168</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>985.4544125320142</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778193</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.2098134987023</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
         <v>839.4070255988736</v>
@@ -5272,13 +5272,13 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5290,25 +5290,25 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>683.9862940886057</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5466,22 +5466,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1937.243350830083</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.058902330388</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1375.347434938416</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1100.495031110929</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.495031110929</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.1522628006715</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1582.26891798564</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1582.26891798564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5743,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>4225.654392279956</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>4225.654392279956</v>
+        <v>1789.54922940895</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>919.4582979645735</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>747.4857348434895</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>584.1689619702602</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1420.653470102319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1145.801066274832</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1145.801066274832</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>919.4582979645735</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368.3282513713204</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6311,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2157.555503974472</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2157.555503974472</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.3982314439065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>896.5642001559722</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>896.5642001559722</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>730.647150085061</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>730.647150085061</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N33" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
         <v>1446.844867123559</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6891,19 +6891,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1693.538071632295</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1411.826604240323</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1411.826604240323</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1411.826604240323</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1185.483835930065</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,13 +6940,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6973,7 +6973,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7025,16 +7025,16 @@
         <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>881.4746279705485</v>
+        <v>552.7245472657485</v>
       </c>
       <c r="C37" t="n">
-        <v>709.5020648494644</v>
+        <v>380.7519841446644</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>380.7519841446644</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>380.7519841446644</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>380.7519841446644</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.056897064296</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1314.204493236809</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.640596682614</v>
+        <v>742.8905159778142</v>
       </c>
       <c r="Y37" t="n">
-        <v>1071.640596682614</v>
+        <v>742.8905159778142</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,13 +7210,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7256,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988751</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,16 +7411,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1370507523521</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>274.1644876312681</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D43" t="n">
-        <v>274.1644876312681</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>160.1248092497246</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>160.1248092497246</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.3030194644177</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7630,43 +7630,43 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988731</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883217</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623565</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
         <v>4997.579335409525</v>
@@ -7675,22 +7675,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.2543031032136</v>
+        <v>1061.747191350772</v>
       </c>
       <c r="C46" t="n">
-        <v>847.2543031032136</v>
+        <v>889.7746282296876</v>
       </c>
       <c r="D46" t="n">
-        <v>683.9375302299843</v>
+        <v>726.4578553564583</v>
       </c>
       <c r="E46" t="n">
-        <v>517.7293243828378</v>
+        <v>560.2496495093118</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.153331232334</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.153331232334</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W46" t="n">
-        <v>1506.326936679732</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="X46" t="n">
-        <v>1263.763040125537</v>
+        <v>1478.255928373095</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.420271815279</v>
+        <v>1251.913160062837</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487774</v>
+        <v>39.30235543328123</v>
       </c>
       <c r="L2" t="n">
-        <v>41.84979707109434</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533998</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884147</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099927</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641994</v>
+        <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,31 +8057,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873014</v>
+        <v>390.5045014003143</v>
       </c>
       <c r="L3" t="n">
-        <v>33.33065795364229</v>
+        <v>506.2917778681982</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662966</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761902</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587967</v>
+        <v>505.5475323587973</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>149.2582520094629</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178343</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8218,16 +8218,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>452.2898123070841</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
@@ -8236,10 +8236,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>372.0892523034619</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8312,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8543,10 +8543,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>500.7395978363249</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,7 +8780,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>185.1977413813447</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8938,19 +8938,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116015</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>22.16299716586774</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9257,13 +9257,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>354.7888827341285</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335774</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>62.99189426028805</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>384.9994066731654</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10117,13 +10117,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>106.3367244377138</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>30.84957720362488</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>30.84957720362488</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10673,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,25 +10828,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>313.2411601358238</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,10 +11068,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
@@ -11314,10 +11314,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23436,7 +23436,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.06429263107282</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.18544517282953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67.32198521343057</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>116.9973198203195</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>112.1749600256938</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>44.5250625300167</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>152.1369473363745</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.4363628223186</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.8399274958679</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.0588103613166</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,16 +25797,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>41.52700769166964</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>23.72839555637412</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>68.33574918213583</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>549035.5913446264</v>
+        <v>549035.5913446265</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>563357.1697351867</v>
+        <v>563357.1697351866</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563357.1697351867</v>
+        <v>563357.1697351866</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563357.1697351867</v>
+        <v>563357.1697351866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>563357.1697351867</v>
+        <v>563357.1697351866</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563357.1697351867</v>
+        <v>563357.1697351866</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097676</v>
       </c>
       <c r="C2" t="n">
+        <v>509637.3345097676</v>
+      </c>
+      <c r="D2" t="n">
         <v>509637.3345097677</v>
-      </c>
-      <c r="D2" t="n">
-        <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="F2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="G2" t="n">
         <v>491776.6027452663</v>
@@ -26334,22 +26334,22 @@
         <v>491776.6027452663</v>
       </c>
       <c r="I2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="J2" t="n">
         <v>491776.6027452665</v>
-      </c>
-      <c r="J2" t="n">
-        <v>491776.6027452663</v>
       </c>
       <c r="K2" t="n">
         <v>491776.6027452665</v>
       </c>
       <c r="L2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="M2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="N2" t="n">
         <v>491776.6027452664</v>
-      </c>
-      <c r="M2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452663</v>
       </c>
       <c r="O2" t="n">
         <v>491776.6027452664</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361221</v>
+        <v>23406.83367361202</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.268580289</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701978</v>
+        <v>18646.60035701964</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125817</v>
       </c>
       <c r="C4" t="n">
         <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>182621.065515899</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="F4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="G4" t="n">
-        <v>72380.62724986368</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72380.62724986365</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72380.62724986364</v>
+      </c>
+      <c r="N4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="M4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72380.6272498637</v>
       </c>
       <c r="O4" t="n">
         <v>72380.62724986365</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986365</v>
+        <v>72380.62724986368</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88984.09470543361</v>
+        <v>88984.09470543319</v>
       </c>
       <c r="C6" t="n">
         <v>236163.1842828284</v>
       </c>
       <c r="D6" t="n">
-        <v>259570.0179564406</v>
+        <v>259570.0179564405</v>
       </c>
       <c r="E6" t="n">
-        <v>125906.5567503324</v>
+        <v>125855.5260881481</v>
       </c>
       <c r="F6" t="n">
-        <v>341645.9133069729</v>
+        <v>341594.8826447885</v>
       </c>
       <c r="G6" t="n">
-        <v>341645.9133069729</v>
+        <v>341594.8826447887</v>
       </c>
       <c r="H6" t="n">
-        <v>341645.913306973</v>
+        <v>341594.8826447887</v>
       </c>
       <c r="I6" t="n">
-        <v>341645.9133069731</v>
+        <v>341594.8826447885</v>
       </c>
       <c r="J6" t="n">
-        <v>215068.6447266841</v>
+        <v>215017.6140644997</v>
       </c>
       <c r="K6" t="n">
-        <v>322999.3129499534</v>
+        <v>322948.2822877691</v>
       </c>
       <c r="L6" t="n">
-        <v>341645.913306973</v>
+        <v>341594.8826447886</v>
       </c>
       <c r="M6" t="n">
-        <v>161582.0418518052</v>
+        <v>161531.011189621</v>
       </c>
       <c r="N6" t="n">
-        <v>341645.9133069729</v>
+        <v>341594.8826447887</v>
       </c>
       <c r="O6" t="n">
-        <v>341645.9133069731</v>
+        <v>341594.8826447888</v>
       </c>
       <c r="P6" t="n">
-        <v>341645.9133069729</v>
+        <v>341594.8826447886</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26807,7 +26807,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162609</v>
+        <v>72.45112196162552</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>231.6731933331276</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27432,19 +27432,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>298.5883050911468</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.33003921450836</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.16025640288981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>350.5048792244486</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>276.5769850937016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>62.44348120064728</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>206.276239534001</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>350.5048792244487</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>112.960686384381</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30209,7 +30209,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.867363806369035e-12</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.776691153968</v>
+        <v>3.537754638471891</v>
       </c>
       <c r="L2" t="n">
-        <v>3.537754638471418</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P2" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.776691153968</v>
+        <v>368.105267566981</v>
       </c>
       <c r="L3" t="n">
-        <v>10.81557123941274</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.776691153968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.776691153968</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>128.2935975567509</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598478</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
@@ -34956,10 +34956,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35263,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127374</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35658,19 +35658,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013702</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3921559610390808</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212494</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>39.82000453806583</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>361.8275169509432</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36855,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>83.23994392538586</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,10 +37788,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
@@ -38034,10 +38034,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
